--- a/source_data_old/17_data.xlsx
+++ b/source_data_old/17_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C291F08-277F-4503-BE7C-F12477DDF856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56D6AE8-873E-4A35-8487-CD29623A697E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60509,11 +60509,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y795" xr:uid="{2421A4F3-5312-43B3-861D-84E49C1D51A0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y795">
-      <sortCondition ref="P2"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
